--- a/excel/Registro Datos.xlsx
+++ b/excel/Registro Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andres/deberdata/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{124B2CB0-2F99-5843-B434-24464CB94D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7586B5FF-9155-FD4F-895F-61D341BA98AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17360" xr2:uid="{E8AA769D-D48C-184A-A33C-CAE340534C38}"/>
+    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{E8AA769D-D48C-184A-A33C-CAE340534C38}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t xml:space="preserve">Distancia </t>
   </si>
@@ -96,6 +96,51 @@
   </si>
   <si>
     <t>140 bpm</t>
+  </si>
+  <si>
+    <t>Hora de sueño</t>
+  </si>
+  <si>
+    <t>Cantidad de sueño (1-10)</t>
+  </si>
+  <si>
+    <t>Cantidad de interrupciones</t>
+  </si>
+  <si>
+    <t>Cantidad de ciclos de sueño</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duración de cada ciclo </t>
+  </si>
+  <si>
+    <t>7h</t>
+  </si>
+  <si>
+    <t>6.45h</t>
+  </si>
+  <si>
+    <t>6h</t>
+  </si>
+  <si>
+    <t>5h</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>3.5h</t>
+  </si>
+  <si>
+    <t>2.15h</t>
+  </si>
+  <si>
+    <t>1.5h</t>
+  </si>
+  <si>
+    <t>2.5h</t>
+  </si>
+  <si>
+    <t>2h</t>
   </si>
 </sst>
 </file>
@@ -499,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75EC6C56-DD17-3D41-81EE-5C66B6453EDE}">
   <dimension ref="C4:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="75" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -510,6 +555,11 @@
     <col min="6" max="6" width="10.83203125" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="21.83203125" customWidth="1"/>
+    <col min="13" max="13" width="24.1640625" customWidth="1"/>
+    <col min="14" max="14" width="24.5" customWidth="1"/>
+    <col min="15" max="15" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:15" x14ac:dyDescent="0.2">
@@ -535,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.2">
@@ -573,19 +623,19 @@
         <v>45390</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="L5" s="1">
+        <v>8</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>4</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.2">
@@ -608,22 +658,22 @@
         <v>7</v>
       </c>
       <c r="J6" s="3">
-        <v>45392</v>
+        <v>45391</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="L6" s="1">
+        <v>7</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>3</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.2">
@@ -646,22 +696,22 @@
         <v>12</v>
       </c>
       <c r="J7" s="3">
-        <v>45394</v>
+        <v>45392</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="L7" s="1">
+        <v>7</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>4</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.2">
@@ -684,22 +734,22 @@
         <v>16</v>
       </c>
       <c r="J8" s="3">
-        <v>45396</v>
+        <v>45393</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="L8" s="1">
+        <v>5</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>2</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.2">
@@ -712,13 +762,23 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="J9" s="3">
-        <v>45397</v>
-      </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+        <v>45394</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="1">
+        <v>10</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
+        <v>4</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C10" s="3">
@@ -730,7 +790,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="J10" s="3">
-        <v>45398</v>
+        <v>45397</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -748,7 +808,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="J11" s="3">
-        <v>45399</v>
+        <v>45398</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -766,7 +826,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="J12" s="3">
-        <v>45400</v>
+        <v>45399</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -784,7 +844,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="J13" s="3">
-        <v>45401</v>
+        <v>45400</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -802,7 +862,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="J14" s="3">
-        <v>45402</v>
+        <v>45401</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -820,7 +880,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="J15" s="3">
-        <v>45403</v>
+        <v>45402</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -838,7 +898,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="J16" s="3">
-        <v>45404</v>
+        <v>45403</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -856,7 +916,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="J17" s="3">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -874,7 +934,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="J18" s="3">
-        <v>45406</v>
+        <v>45405</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -892,7 +952,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="J19" s="3">
-        <v>45407</v>
+        <v>45406</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
